--- a/src/excel/base/U_PLANTILLA_CERTIFICADO_QR.xlsx
+++ b/src/excel/base/U_PLANTILLA_CERTIFICADO_QR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\_OTIC\_SISTEMAS\SISTEMA-QR\qr-code-api\src\excel\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E92788-54C0-4129-8F4F-B960AC9C3718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FBECB4-6E93-4C98-B675-72009B385CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="13740" windowHeight="23640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23310" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MASIVO" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>NOMBRES</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>EVENTO_ID</t>
-  </si>
-  <si>
-    <t>FECHA_EMISION</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -519,6 +516,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -534,10 +534,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -821,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,12 +872,10 @@
       <c r="K1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="29" t="s">
-        <v>31</v>
-      </c>
+      <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
@@ -1190,9 +1184,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6612173-2DB8-465F-8A72-D7E717669F7E}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1237,7 +1231,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -1248,7 +1242,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
@@ -1257,7 +1251,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
@@ -1277,7 +1271,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="16" t="s">
@@ -1288,7 +1282,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
@@ -1297,7 +1291,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="7" t="s">
         <v>22</v>
       </c>
@@ -1306,7 +1300,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -1317,7 +1311,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
@@ -1326,7 +1320,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
@@ -1335,7 +1329,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
@@ -1344,7 +1338,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
@@ -1353,49 +1347,13 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
